--- a/public/assets/examexcel/jurusan.xlsx
+++ b/public/assets/examexcel/jurusan.xlsx
@@ -41,10 +41,10 @@
     <t>Rekayasa Perangkat Lunak</t>
   </si>
   <si>
-    <t>Produksi dan Siaran Program Televisi</t>
-  </si>
-  <si>
     <t>Teknik Elektronika Industri</t>
+  </si>
+  <si>
+    <t>Broadcasting</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
